--- a/documentation-generator/vocab_csv/legal_basis.xlsx
+++ b/documentation-generator/vocab_csv/legal_basis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="253">
   <si>
     <t>Term</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Label</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>Definition</t>
   </si>
   <si>
     <t>ParentTerm</t>
@@ -41,7 +41,7 @@
     <t>Relation</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t>Usage</t>
   </si>
   <si>
     <t>Source</t>
@@ -110,7 +110,7 @@
     <t>Creation, completion, fulfilment, or performance of a contract involving specified processing</t>
   </si>
   <si>
-    <t>dpv:LegalBasis,dpv:LegalAgreement</t>
+    <t>dpv:LegalAgreement</t>
   </si>
   <si>
     <t>ContractPerformance</t>
@@ -480,9 +480,6 @@
   </si>
   <si>
     <t>dpv:ConsentStatusInvalidForProcessing</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
   <si>
     <t>Consent states can be unknown, for example, when information is not available, or cannot be trusted, or is known to be inaccurate</t>
@@ -1007,6 +1004,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="&quot;Arial&quot;"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1019,10 +1020,6 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="&quot;Arial&quot;"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -1170,14 +1167,17 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1192,9 +1192,6 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1204,7 +1201,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1607,43 +1604,41 @@
       <c r="C3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23">
         <v>44293.0</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
@@ -1658,40 +1653,40 @@
       <c r="D4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="22">
+      <c r="E4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="23">
         <v>44293.0</v>
       </c>
-      <c r="L4" s="20"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
@@ -1706,40 +1701,40 @@
       <c r="D5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="22">
+      <c r="E5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="23">
         <v>44293.0</v>
       </c>
-      <c r="L5" s="20"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
@@ -1751,43 +1746,41 @@
       <c r="C6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="22">
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="23">
         <v>44447.0</v>
       </c>
-      <c r="L6" s="20"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
@@ -1802,40 +1795,40 @@
       <c r="D7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="22">
+      <c r="E7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="23">
         <v>44293.0</v>
       </c>
-      <c r="L7" s="20"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
@@ -1847,43 +1840,41 @@
       <c r="C8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="22">
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="23">
         <v>44293.0</v>
       </c>
-      <c r="L8" s="20"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
@@ -1895,43 +1886,41 @@
       <c r="C9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="22">
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="23">
         <v>44335.0</v>
       </c>
-      <c r="L9" s="20"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="O9" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
@@ -1946,40 +1935,40 @@
       <c r="D10" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="22">
+      <c r="E10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="23">
         <v>44335.0</v>
       </c>
-      <c r="L10" s="20"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="N10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="O10" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
@@ -1994,40 +1983,40 @@
       <c r="D11" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="22">
+      <c r="E11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="23">
         <v>44335.0</v>
       </c>
-      <c r="L11" s="20"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
@@ -2042,18 +2031,18 @@
       <c r="D12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="22">
+      <c r="E12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="23">
         <v>44856.0</v>
       </c>
-      <c r="L12" s="20"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="19" t="s">
         <v>21</v>
       </c>
@@ -2061,19 +2050,19 @@
         <v>62</v>
       </c>
       <c r="O12" s="19"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
@@ -2085,43 +2074,41 @@
       <c r="C13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="22">
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="23">
         <v>44321.0</v>
       </c>
-      <c r="L13" s="20"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="24" t="s">
+      <c r="N13" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="O13" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
@@ -2133,43 +2120,41 @@
       <c r="C14" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="22">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="23">
         <v>44307.0</v>
       </c>
-      <c r="L14" s="20"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="O14" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
     </row>
     <row r="15">
       <c r="A15" s="19" t="s">
@@ -2181,43 +2166,41 @@
       <c r="C15" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="22">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="23">
         <v>44307.0</v>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
     </row>
     <row r="16">
       <c r="A16" s="19" t="s">
@@ -2232,40 +2215,40 @@
       <c r="D16" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="22">
+      <c r="E16" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="23">
         <v>44307.0</v>
       </c>
-      <c r="L16" s="20"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="24" t="s">
+      <c r="N16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
     </row>
     <row r="17">
       <c r="A17" s="19" t="s">
@@ -2280,40 +2263,40 @@
       <c r="D17" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="22">
+      <c r="E17" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="23">
         <v>44307.0</v>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="21"/>
       <c r="M17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="24" t="s">
+      <c r="N17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="23" t="s">
+      <c r="O17" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
     </row>
     <row r="18">
       <c r="A18" s="19" t="s">
@@ -2328,36 +2311,36 @@
       <c r="D18" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="E18" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
       <c r="M18" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="23" t="s">
+      <c r="N18" s="21"/>
+      <c r="O18" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
     </row>
     <row r="19">
       <c r="A19" s="19" t="s">
@@ -2372,36 +2355,36 @@
       <c r="D19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="E19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
       <c r="M19" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N19" s="20"/>
-      <c r="O19" s="23" t="s">
+      <c r="N19" s="21"/>
+      <c r="O19" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AB33">
@@ -2478,7 +2461,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="26" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
@@ -2501,30 +2484,30 @@
       <c r="A2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>96</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="20" t="str">
+      <c r="E2" s="21" t="str">
         <f>CONCATENATE("dpv:",RIGHT(A2,LEN(A2) - 3))</f>
         <v>dpv:LegalBasis</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="19"/>
-      <c r="K2" s="22">
+      <c r="K2" s="23">
         <v>43559.0</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="23">
         <v>44139.0</v>
       </c>
       <c r="M2" s="19" t="s">
@@ -2533,22 +2516,22 @@
       <c r="N2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AB2">
@@ -2647,39 +2630,39 @@
         <v>101</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="22">
+        <v>26</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="23">
         <v>44733.0</v>
       </c>
-      <c r="L2" s="20"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
@@ -2695,41 +2678,41 @@
         <v>101</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="22">
+      <c r="J3" s="21"/>
+      <c r="K3" s="23">
         <v>44733.0</v>
       </c>
-      <c r="L3" s="20"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
@@ -2745,41 +2728,41 @@
         <v>111</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="22">
+      <c r="J4" s="21"/>
+      <c r="K4" s="23">
         <v>44733.0</v>
       </c>
-      <c r="L4" s="20"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
@@ -2795,41 +2778,41 @@
         <v>111</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="22">
+      <c r="J5" s="21"/>
+      <c r="K5" s="23">
         <v>44733.0</v>
       </c>
-      <c r="L5" s="20"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
@@ -2845,41 +2828,41 @@
         <v>120</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="22">
+      <c r="J6" s="21"/>
+      <c r="K6" s="23">
         <v>44733.0</v>
       </c>
-      <c r="L6" s="20"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AB10">
@@ -2980,41 +2963,41 @@
       <c r="E2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="23">
         <v>44734.0</v>
       </c>
-      <c r="L2" s="20"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
@@ -3026,47 +3009,45 @@
       <c r="C3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="23">
         <v>44734.0</v>
       </c>
-      <c r="L3" s="20"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
@@ -3078,47 +3059,45 @@
       <c r="C4" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="23">
         <v>44734.0</v>
       </c>
-      <c r="L4" s="20"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
@@ -3135,512 +3114,512 @@
         <v>140</v>
       </c>
       <c r="E5" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="J5" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="K5" s="22">
+      <c r="K5" s="23">
         <v>44734.0</v>
       </c>
-      <c r="L5" s="20"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Consent Requested</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>140</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+        <v>130</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="J6" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" s="22">
+      <c r="K6" s="23">
         <v>44734.0</v>
       </c>
-      <c r="L6" s="20"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C7" s="19" t="s">
         <v>149</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>150</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>140</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+        <v>130</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="K7" s="22">
+      <c r="K7" s="23">
         <v>44734.0</v>
       </c>
-      <c r="L7" s="20"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>154</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>155</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>140</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+        <v>130</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J8" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="J8" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="K8" s="22">
+      <c r="K8" s="23">
         <v>44734.0</v>
       </c>
-      <c r="L8" s="20"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N8" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="19" t="s">
+      <c r="J9" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="K9" s="22">
+      <c r="K9" s="23">
         <v>44734.0</v>
       </c>
-      <c r="L9" s="20"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N9" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="O9" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>166</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>140</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+        <v>130</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="J10" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="K10" s="22">
+      <c r="K10" s="23">
         <v>44734.0</v>
       </c>
-      <c r="L10" s="20"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N10" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="O10" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>171</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>140</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+        <v>130</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J11" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="J11" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="K11" s="22">
+      <c r="K11" s="23">
         <v>44734.0</v>
       </c>
-      <c r="L11" s="20"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N11" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="C12" s="20" t="s">
         <v>175</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>176</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>140</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+        <v>130</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J12" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="J12" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="K12" s="22">
+      <c r="K12" s="23">
         <v>44734.0</v>
       </c>
-      <c r="L12" s="20"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N12" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>180</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>181</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>140</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+        <v>130</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J13" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="J13" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="K13" s="22">
+      <c r="K13" s="23">
         <v>44734.0</v>
       </c>
-      <c r="L13" s="20"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="O13" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="C14" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="D14" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19" t="s">
+      <c r="J14" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="J14" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="K14" s="22">
+      <c r="K14" s="23">
         <v>44734.0</v>
       </c>
-      <c r="L14" s="20"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="O14" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AB100">
@@ -3750,153 +3729,153 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>190</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>191</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="22">
+        <v>191</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="23">
         <v>44733.0</v>
       </c>
-      <c r="L2" s="20"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>195</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="22">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="23">
         <v>44733.0</v>
       </c>
-      <c r="L3" s="20"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="19" t="s">
         <v>197</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>198</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="22">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="23">
         <v>44733.0</v>
       </c>
-      <c r="L4" s="20"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="C5" s="19" t="s">
         <v>200</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>201</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>18</v>
@@ -3904,37 +3883,37 @@
       <c r="E5" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="22">
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="23">
         <v>44733.0</v>
       </c>
-      <c r="L5" s="20"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
     </row>
     <row r="6">
       <c r="A6" s="19"/>
@@ -3942,309 +3921,309 @@
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B7" s="19"/>
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="C8" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="I8" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="K8" s="23">
+        <v>43560.0</v>
+      </c>
+      <c r="L8" s="23">
+        <v>44899.0</v>
+      </c>
+      <c r="M8" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="K8" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L8" s="22">
-        <v>44899.0</v>
-      </c>
-      <c r="M8" s="19" t="s">
+      <c r="N8" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="N8" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" s="24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="C9" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="F9" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="K9" s="22">
+      <c r="I9" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="K9" s="23">
         <v>43560.0</v>
       </c>
       <c r="L9" s="32">
         <v>44899.0</v>
       </c>
       <c r="M9" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="O9" s="23" t="s">
+      <c r="O9" s="24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="C10" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>215</v>
-      </c>
       <c r="F10" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="I10" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" s="23">
+        <v>43560.0</v>
+      </c>
+      <c r="L10" s="23">
+        <v>44899.0</v>
+      </c>
+      <c r="M10" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="K10" s="22">
-        <v>43560.0</v>
-      </c>
-      <c r="L10" s="22">
-        <v>44899.0</v>
-      </c>
-      <c r="M10" s="19" t="s">
+      <c r="N10" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="N10" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="O10" s="23" t="s">
+      <c r="O10" s="24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="C11" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="I11" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="I11" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="K11" s="22">
+      <c r="K11" s="23">
         <v>43560.0</v>
       </c>
       <c r="L11" s="32">
         <v>44899.0</v>
       </c>
       <c r="M11" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="N11" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="N11" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" s="24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="C12" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="I12" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="K12" s="22">
+      <c r="K12" s="23">
         <v>43560.0</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="23">
         <v>44899.0</v>
       </c>
       <c r="M12" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="N12" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="N12" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" s="24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="C13" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>226</v>
-      </c>
       <c r="I13" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="K13" s="22">
+        <v>218</v>
+      </c>
+      <c r="K13" s="23">
         <v>43560.0</v>
       </c>
       <c r="L13" s="32">
         <v>44899.0</v>
       </c>
       <c r="M13" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="N13" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="N13" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="O13" s="23" t="s">
+      <c r="O13" s="24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="C14" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>229</v>
-      </c>
       <c r="I14" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="K14" s="22">
+        <v>222</v>
+      </c>
+      <c r="K14" s="23">
         <v>43560.0</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="23">
         <v>44899.0</v>
       </c>
       <c r="M14" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="N14" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="N14" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="O14" s="23" t="s">
+      <c r="O14" s="24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="C15" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="E15" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="I15" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="K15" s="22">
+      <c r="K15" s="23">
         <v>43560.0</v>
       </c>
       <c r="L15" s="32">
         <v>44899.0</v>
       </c>
       <c r="M15" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="N15" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="N15" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="C16" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>237</v>
-      </c>
       <c r="E16" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="I16" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="I16" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="K16" s="22">
+      <c r="K16" s="23">
         <v>43560.0</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="23">
         <v>44899.0</v>
       </c>
       <c r="M16" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="N16" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="N16" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" s="24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="C17" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="I17" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="I17" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="K17" s="22">
+      <c r="K17" s="23">
         <v>43560.0</v>
       </c>
       <c r="L17" s="32">
         <v>44899.0</v>
       </c>
       <c r="M17" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="N17" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="N17" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="O17" s="23" t="s">
+      <c r="O17" s="24" t="s">
         <v>103</v>
       </c>
       <c r="P17" s="35"/>
@@ -4263,30 +4242,30 @@
     </row>
     <row r="18">
       <c r="A18" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="C18" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="K18" s="22">
+      <c r="I18" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="K18" s="23">
         <v>43560.0</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="23">
         <v>44899.0</v>
       </c>
       <c r="M18" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="N18" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="N18" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="O18" s="23" t="s">
+      <c r="O18" s="24" t="s">
         <v>103</v>
       </c>
       <c r="P18" s="35"/>
@@ -4305,62 +4284,62 @@
     </row>
     <row r="19">
       <c r="A19" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="C19" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="I19" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="K19" s="22">
+      <c r="K19" s="23">
         <v>43560.0</v>
       </c>
       <c r="L19" s="32">
         <v>44899.0</v>
       </c>
       <c r="M19" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="N19" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="N19" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="O19" s="23" t="s">
+      <c r="O19" s="24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="C20" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="E20" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="I20" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="I20" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="K20" s="22">
+      <c r="K20" s="23">
         <v>43560.0</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="23">
         <v>44899.0</v>
       </c>
       <c r="M20" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="N20" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="N20" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="O20" s="23" t="s">
+      <c r="O20" s="24" t="s">
         <v>103</v>
       </c>
     </row>
